--- a/00_metadaten/chemie-lernprogramme_keywords.xlsx
+++ b/00_metadaten/chemie-lernprogramme_keywords.xlsx
@@ -20,12 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+  <si>
+    <t xml:space="preserve">Programmname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schlüsselwörter</t>
+  </si>
   <si>
     <t xml:space="preserve">3dmolekuele</t>
   </si>
   <si>
-    <t xml:space="preserve">Schlüsselwörter </t>
+    <t xml:space="preserve">Molekülbetrachter, 3D-Viewer, 3D-Moleküle, Strukturen </t>
   </si>
   <si>
     <t xml:space="preserve">acidbaser-online</t>
@@ -155,6 +161,9 @@
   </si>
   <si>
     <t xml:space="preserve">mechanismer-online</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaktionsmechanismen, Addition, Substitution, Nukleophil, Elektrophil, radikalisch</t>
   </si>
   <si>
     <t xml:space="preserve">molekuelbildner</t>
@@ -332,7 +341,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -353,6 +362,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -397,8 +413,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -419,23 +439,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="205.92"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -612,231 +632,239 @@
         <v>44</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
